--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProjects\ReadExcelSheetDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFCB3EB-431D-45C3-8468-E9CF463F3DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B21982-1885-4C61-BDF6-154DF66D208E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +84,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,24 +415,25 @@
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -435,7 +450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -452,7 +467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -469,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -488,5 +503,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>